--- a/500all/speech_level/speeches_CHRG-114hhrg93579.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93579.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Gowdy. Welcome, everyone. This is the third hearing of the Benghazi Committee. The committee will come to order. And the chair notes a quorum of two Members for taking testimony is present.    The chair will further note--well, before I note that, consistent with the rules and practices the House, without objection--well, that point has now been rendered moot. So you have been reappointed to the committee, and all members can participate fully.    The chair will recognize himself and then the ranking member for purposes of making an opening statement.    The Committee on Benghazi exists because the House of Representatives voted for it to exist and, in the process, made it very clear what is expected. If you have not read the House resolution authorizing this committee, I would encourage you to do so. For those asking for a roadmap or a scope of the investigation, or who want to know what the committee intends to do, the resolution passed by the House of Representatives, I hasten to add with seven Democrats voting ``yes,'' answers all of those questions.    The resolution asked this committee to investigate all policies, decisions, and activities related to the attacks, the preparation before the attacks, the response during the attacks, efforts to repel the attacks, the administration's response after the attacks, and executive-branch efforts to comply with congressional inquiries.    The operative word in the resolution is the word ``all.'' And the word ``all'' is about as comprehensive a word as you could use. So it stands to reason, if you are asked to conduct a full and complete investigation into all policies, decisions, and activities, you need to access all witnesses and all relevant documents. Because the final task assigned to this committee is to write a comprehensive report complete with recommendations on how to prevent future attacks. And to write a comprehensive report, you need access to all witnesses and all relevant documents.    It is essential we talk to every witness with knowledge and examine all relevant evidence. If six people witness an important event, you cannot credibly report on that event by examining one out of the six. Frankly, you can't credibly report on that event by interviewing two out of the six. Each witness has a different perspective, each witness may have observed a different fact, each witness has a different vantage point, so, to do your job, you have to interview all witnesses.    So, too, with documents. It is interesting, but not relevant, to note the number of pages agencies produce to Congress. What is both interesting and relevant is whether the agency has produced all documents responsive to the request. Giving Congress 10,000 pages of material out of a universe of 10,000 pages of material is good. Giving Congress 10,000 pages of material out of a universe of 100,000 pages of material does not get us any closer to issuing a final report in a timely fashion.    And make no mistake, time is of the essence. The world is not a safer place, as some of you may have noted even this morning. It is not safer than it was in 2012. So the sooner we make recommendations related to the improvements that make lives better for the women and men who serve us abroad, the better. Moreover, time does not make investigations or witness recollections or memories or evidence better either.    The purpose of today's hearing is to hear from some agencies and entities about the state of compliance with requests for documents and access to witnesses.    And we have had some success. The State Department provided the committee with 25,000 pages of documents, previously provided to the Oversight Committee but now with fewer redactions. In addition, this production included, finally, 15,000 new pages of documents. These documents include significantly more traffic from State Department leadership than in previously provided information to Congress.    These new documents are a reminder that no previous standing committee compiled or had access to a complete record of events, which is precisely why the Speaker constituted a select committee to produce a complete, definitive record for our fellow citizens.    Additionally, as of recent, the CIA made available some of the documents we requested in November. And while it is good to finally receive the new documents, the pace at which this process is moving is not conducive to the committee concluding its work expeditiously.    And, frankly, it should not take a public hearing to make progress on these requests. Our hearings should be about substance, not process. We should be analyzing documents, not waiting for them to appear.    I want to read a quote. ``I can promise you that if you are not getting something you have evidence of or you think you ought to be getting, we will work with you. And I will appoint someone to work directly with you starting tomorrow--with you, Mr. Chairman, to have a review of anything you don't think you have gotten that you are supposed to get. Let's get this done, folks.'' That was Secretary John Kerry, and that was in April of 2013.    So my objective is simple: I want to be able to look the family members of the four murdered Americans in the eye and tell them we found out everything that we could. I want to be able to tell my fellow citizens, including the man from Oregon who sat beside me on the plane yesterday, who used to guard facilities across the world as a Marine, that we made improvements that make women and men who serve us in dangerous places safer. And I want to be able to look my fellow citizens in the eye, regardless of their political ideation, and say, this is what happened, and this is how we can make sure it does not happen again.    So there will be no mystery to my questions today. There will be no trickery and no artifice. I want to know when the agencies are going to comply with the requests made by this committee so we can finish the work assigned to us, because I have zero interest in prolonging the work of this committee. And, by the same token, I have zero interest in producing a product that is incomplete.    So, in conclusion, I want to be as clear as I can possibly be. We intend to access all of the information necessary to do the job the House instructed us to do. And we need to access that information now. Talking to only some of the witnesses will not work, and accessing only some of the documents will not work. If you want all of the truth, then you need all of the information.    And we will do it in a respectful way, worthy of the memory of the four who were murdered and worthy of the respect of our fellow citizens, but it is going to be done. And the sooner the agencies make these documents and witnesses available to us, the sooner we can do what we were asked to do.    And, with that, I would recognize the gentleman from Maryland.    [The prepared statement of Chairman Gowdy not supplied]</t>
   </si>
   <si>
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman.    I agree with you that we need to have all the information, we need to have all the documents, we need to have everything that you just talked about sooner rather than later.    Mr. Chairman and my fellow committee members, I am a bit sad to report today that there are major, major problems with this committee and its work. Democratic members have grave concerns about the partisan path this committee has taken over the past year--a path we believe undermines the credibility of the investigation itself and the very things that the Chairman just said he is fighting for--to make sure that we come out with a credible report.    We spent months trying to resolve these problems privately, but we can no longer remain silent.    When the committee was established last May, many questioned whether it would devolve into unseemly partisanship. Many worried that it would become a repeat of the Oversight and Government Reform Committee, where ridiculous allegations were made with no evidence--no evidence--to back them up, excerpts of documents were leaked out of context to promote false political narratives, and Democrats were cut out of the investigative process. I know because I was the ranking member and I was cut out over and over and over again.    In response, Chairman Gowdy assured the families of Chris Stevens, Sean Smith, Ty Woods, and Glen Doherty that this investigation would honor their loved ones by being bipartisan, fair, and based on the facts. One of the things that I said to the father of Tyrone Woods is that I would do everything in my power to seek the truth, the whole truth, and nothing but the truth, so help me God.    The chairman said that he would ``transcend politics,'' and that is a quote. He stated these words, and they meant so much when he said them. He said, ``If we engage in a process that is not fair according to the American people, we will be punished, as we should be, for that.''    Unfortunately, since then, Democrats have been excluded from core components of this investigation. People may find it difficult to believe, but eight months into this investigation, Democrats and Republicans on this committee have not spoken jointly with even a single witness. Instead, we were stunned to discover that the chairman and his staff have interviewed at least five individuals on their own without including Democrats or even notifying us.    We learned about these interviews from the witnesses themselves and from press accounts, not from our Republican colleagues. Even worse, when our staff inquired about some of these interviews, Republicans downplayed their significance. They said these interviews were not important, that one of them said nothing, quote, ``of note,'' and that the committee did not plan to use them.    But when we spoke to these witnesses, we got a different story. They shared key facts that undermine allegations the committee is investigating. Let me repeat that. When Democrats had a chance to interview some of these individuals, they provided factual information that counters the allegations this committee is investigating. Rather than bringing this information forward when the committee first obtained it, the information was buried.    The chairman is right; we need all of the facts--facts that may not be consistent with some of the things that we are hearing--because the families of those four Americans deserve that, and the American people deserve it--the truth, the whole truth and nothing but the truth.    These are not actions of a bipartisan investigation, to have secret meetings with witnesses. The way to honor the four Americans killed in Benghazi is to seek the truth, not to ignore the facts that contradict a preconceived political narrative. A credible investigation recognizes the importance of collecting these facts and putting to rest false allegations rather than allowing them to fester.    To try to address these problems, we asked the chairman to hold a vote on basic committee rules. We just want some rules. We wanted to ensure that all members, both Republicans and Democrats--and I emphasize that, both Republicans and Democrats--could participate fully in the investigation and would no longer be excluded.    Some may recall that our hearing in December was delayed because Democrats were meeting with the chairman beforehand to discuss these problems. As a matter of fact, there were some of our Republican colleagues that had drifted into that meeting. Following that meeting, the chairman promised that we would hold a vote on the committee rules. We even met with the Speaker, and he gave his blessings. But no vote has been held.    What is so disappointing is that this has been going on for months. We wrote private letters to the chairman laying out these problems in detail, hoping to resolve them. We explained that this will not be a credible, fair, or factual investigation until the committee holds joint meetings, interviews, and discussions with potential witnesses and includes all members in key aspects of our work.    That is not an unreasonable request. In fact, it is exactly how several other committees currently operate, such as the House Armed Services Committee. And there are those who will say that, ``Well, maybe it is not in their rules.'' Well, House Armed Services apparently has not decided to move to common ground; they decided to move to higher ground.    But today, after eight months, we still have no committee rules, so we have no choice but to make these letters public.    As we explained last May when we agreed to join the committee, we need someone in the room simply to defend the truth. But we cannot defend the truth if Republicans lock us out. Until this changes, the committee will be viewed as nothing more than yet another partisan, expensive, and time-consuming campaign to continue politicizing this terrible tragedy.    Finally, Mr. Chairman, let me say a few words about today's hearing. Many people are concerned about the glacial pace of this committee's investigation. But, rather than blaming Federal agencies, we should acknowledge that the reason for the delay lies in the committee's own actions. The fact is that the committee waited six months before sending its first request for new documents--six months. It took the committee almost a month longer to request witness interviews from the State Department. And even now, eight months into the investigation, the committee still has not sent a document request to the Department of Defense and it has yet to request a single witness interview from the CIA.    Although I continue to believe that the best way forward for our committee is to reach agreement on a truly bipartisan approach, I can no longer say that I am optimistic that this will happen. Nevertheless, our door is always open, and we will always be willing to sit down in pursuit of the truth, the whole truth, and nothing but the truth.    With that, I yield back.    [The prepared statement of Mr. Cummings not supplied]</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rubin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rubin. Thank you, Chairman Gowdy, Ranking Member Cummings, and distinguished members of the committee. It is an honor to be with you, and thank you for providing me with the opportunity to give testimony to your committee this morning.    My name is Joel Rubin, and I am the Deputy Assistant Secretary of State for House Affairs in the Department's Legislative Affairs Bureau. In this role, I serve as the Department's chief liaison to the House, responsible for ensuring that the multitude of foreign-policy issues that the House cares about, from fighting terrorism, to preventing a nuclear Iran, to expanding our economic alliances in Asia, to supporting your constituents when they travel overseas, are dealt with both efficiently and effectively.    I have served in the Federal Government for more than a decade, including both as a Hill staffer and as a civil servant in the State Department during the Bush administration. I work closely with committees and leadership in the House on a daily basis, ensuring that the Department's relationships and communications with the House are strong. And that is why I am here before you today.    As you know, the State Department has a strong record of cooperation with your committee, something which we are proud of and something that you yourself recently acknowledged, Mr. Chairman--statements for which we are grateful. This is consistent with our work prior to this committee's formation, as the Department has provided nearly 2 years of steady cooperation with Congress on Benghazi by responding to requests from 10 committees, through hearings with several officials, including former Secretary Clinton, and by providing more than 20 witness interviews and more than 55 congressional briefings, in addition to responding to hundreds of congressional inquiries. Since the formation of this committee in May of last year, we have provided four briefings and witnesses for two more hearings, plus today's. And, crucially, we have produced more than 40,000 pages of documents related to the tragic Benghazi attacks, all of which are in the hands of your committee today.    Since our most recent conversation with the committee last month about its top priorities, the Department has been hard at work on implementing your most recent requests for documents and interviews. Our progress has been slowed somewhat by the holidays and the briefing we provided to you on January 13th, but also by the breadth and time span of the document request itself. Nonetheless, we will begin producing documents soon to the committee to meet this request.    To put it bluntly, your priorities are our priorities. Therefore, in addition to the priority documents we will be providing soon, we also look forward to continuing to work with your staff to ensure that your requested interviews can proceed, so long as they do not jeopardize the Department of Justice's investigation and prosecution of the perpetrators of the Benghazi attacks.    It is important to remember that from a management perspective we cannot respond to every request for a hearing, a briefing, documents, or interviews simultaneously. But we can and will prioritize our resources to address each request in the order that you identify as most important to you, as the committee most recently did in December.    Turning to your December requests for interviews, your staff informed us that, of the 22 names requested, the committee's priority was to interview the Diplomatic Security agents who served heroically during the attacks. We understand the committee's interest in interviewing these agents, and I am sure that the committee does not want to take any action that would create risks to their personal safety or their ability to do their jobs. We at the State Department have concerns that the requested interviews will pose precisely such risks. We also want to avoid interfering with the Department of Justice's ongoing investigations and prosecutions.    As a result, we have been in ongoing conversations since December with your staff, counsel for the agents, and the Department of Justice to try to find a way forward that accommodates your request without endangering these men and their families, without negatively impacting national security, and without harming the ongoing investigation and prosecution of the perpetrators of the attacks. We are hopeful that an accommodation can be reached.    In closing, we are proud of the significant and steady progress we have made on the committee's document and interview requests. We are grateful to the committee and its staff for your collegiality, and we look forward to continuing to work with the committee on its most recent priority document and interview requests, of which you will be seeing additional tangible responses in the near future.    Thank you, and I look forward to the committee's questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Gowdy. Mr. Higgins.</t>
   </si>
   <si>
-    <t>Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Mr. Chairman, Ranking Member Cummings, and members of the committee, thank you for this opportunity to discuss CIA's continuing cooperation with the committee's investigation. I apologize in advance for my cough.    Since the committee's creation, CIA has enjoyed a positive and productive dialogue with the committee and its staff. As of last Friday, CIA had fulfilled all of the committee's requests to date. Specifically, since last June, CIA has certified the committee's secure workspaces, granted access to sensitive compartmented information for 15 members of the committee staff, reviewed roughly 40,000 pages of State Department documents for CIA equities, and, through the Director of National Intelligence, provided the committee with finished intelligence products relating to Libya during the period in question.    Last Friday, CIA began production of more than 1,000 highly sensitive documents requested by the committee. I understand committee staff will begin reviewing those documents tomorrow.    With regard to committee requests to interview current or former CIA officers, we will work with the committee to respond to such requests in a timely fashion.    Working with classified information and interviewing covert employees can pose unique challenges for congressional oversight. We are committed to providing the committee with access to the information you need while safeguarding intelligence sources and methods.    We look forward to continuing our dialogue in the weeks ahead, and I look forward to your questions today.</t>
   </si>
   <si>
@@ -373,9 +361,6 @@
     <t>400379</t>
   </si>
   <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman.    Mr. Rubin, thank you. And I am going to try something a little different here; I am going to let you get a complete sentence out in response to a question so we can hopefully elicit some information.    But, first of all, the document request. The first document request that this committee sent out was on November 18th. The committee was formed in May, so--sorry, my math is a little off here. Between May and November, that is five or six months before the committee made a document request.    Now, the Chairman would have everybody believe that they have been begging for documents from day one and you have been stonewalling them and that is the only reason we can't proceed. But fact number one is, from May to November, there were no document requests from this committee. Okay? If we are not interested in dragging it out, that just boggles the mind, that you wouldn't make a document request.    Now, putting aside for the moment that there have been nine separate investigations. And, gosh, I don't even know if anyone could count up the number of document requests that you have received from those nine separate investigations or the number of documents that you have, in fact, provided. But the reason Democrats on this committee are concerned about the so-called ``glacial pace,'' is that that is a long time to wait for a document request if you are in a big hurry.    The second interesting thing about the little back-and-forth right there is, as near as I could tell--and it was hard, because you were being cut off so constantly--you have not said ``no'' to any request to interview a witness. Is that not correct?</t>
   </si>
   <si>
@@ -391,9 +376,6 @@
     <t>412394</t>
   </si>
   <si>
-    <t>Martha Roby</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Roby. Well, Mr. Rubin, I hope you thank Mr. Smith after the hearing for giving you a little bit of a break. I am going to ask you a series of questions now to follow up with the chairman about the processes.    We keep talking about those 40,000 documents, this universe. I want to get a better perspective from you. Is that the universe of documents? Is that your position, that 40,000 is it? Or is 40,000 one-quarter or one-half? Can you give us an idea of what this universe of documents looks like?</t>
   </si>
   <si>
@@ -484,9 +466,6 @@
     <t xml:space="preserve">    Chairman Gowdy. The chair will now recognize the lady from California, Ms. Saanchez.</t>
   </si>
   <si>
-    <t>Saanchez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Saanchez. Thank you, Mr. Chairman.    I want to pick up where my colleague Mr. Smith left off, which was in countering the suggestion by the chair's questioning that somehow the Department of State is not forthcoming with their witnesses.    I believe that, in his questioning, the chairman said that DOJ had no problems with the interviews that this committee wants to conduct with certain witnesses. But I do hold in my hand a letter from the Department of Justice that is dated November 21st of 2014, and in that letter it states that they do have concerns, because they have an ongoing investigation, and that prior to any interviews that the committee would conduct, if they could please notify the Department of Justice prior to that.    And I would ask unanimous consent to submit this letter for the record.</t>
   </si>
   <si>
@@ -514,9 +493,6 @@
     <t>412202</t>
   </si>
   <si>
-    <t>Peter J. Roskam</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roskam. Thank you, Mr. Chairman.    I would just like to point out a couple of the internal inconsistencies that our friends on the other side of the aisle are making.    Mr. Cummings made a pledge to pursue the truth, the whole truth, and nothing but the truth, and Mr. Smith basically said you are never going to get it, it is impossible. In fact, he said, ``You are never going to get all of the answers. You are never going to get all of the documents.'' That is an internal inconsistency, and they need to work it out.    Now, Ms. Saanchez just made an argument that said, well, certain information would have disposed of a particular question. But had that information been released, it would have made an exact argument that said, this is selective leaking of information.    And to Mr. Cummings' point, to go back and use just a classic straw man argument--you don't hear that that much, and there was really no pretense to it, but the classic straw man argument says, this is the Oversight and Government Reform Committee. No, it is not. It is a completely different committee with a completely different chairman and completely different admonition from the House.    And, really, to characterize this as a partisan process that is glacial in nature, when the majority has accepted the recommendation of the minority, and that is to have the first two subjects at the request of the minority party? Ridiculous. It is ridiculous.    So let's get down to really what this is all about.    Mr. Rubin, thank you for your time today.    I thought it was ironic that you are talking now in terms of the timing of these things, and that is what has everybody concerned, but you are actually speaking in seasons of the year. With some happiness, you said, ``We have produced two witnesses since the fall.'' Isn't that ironic, that you are not speaking in terms of days or weeks or even months, but you are characterizing the timing of the Department of State in terms of seasons of the year?    Now, you have come into this with an opinion, haven't you, based on your past writings? You wrote a piece about politicizing the Benghazi attacks back in October of 2012. Isn't that right?</t>
   </si>
   <si>
@@ -640,27 +616,18 @@
     <t>400361</t>
   </si>
   <si>
-    <t>Adam B. Schiff</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schiff. Thank you, Mr. Chairman.    I am still trying to figure out who is Indiana Jones in that analogy. I don't think there is an Indiana Jones on this panel, much as I would like to say there is.    I want to comment on a couple things, and I am not sure that I have any question for either of the panelists.    Mr. Higgins, thank you for spending your time with us today. I am not sure why you are here, but I appreciate your presence.    And, Mr. Rubin, it looks like your reason for being here is so that we can beat up on you, which I think is grossly unfair to you and unfair to the State Department, considering that if we are going to look to assess responsibility for the slow pace of this investigation, we ought to look to ourselves before we look to the State Department.    Given that we didn't ask for a single new document from the State Department for the first half-year of the existence of this select committee, it seems a bit disingenuous to be criticizing the State Department for the pace of our investigation. The entire Katrina investigation, that select committee, had finished its work before we had even requested a document from the State Department and certainly before this point in our investigation.    I think the problem here is not with the pace of the State Department's response. The problem all along has been this committee has such an indefinite scope, we don't know exactly what we are looking for. This was a big part of the reason why many Democrats had a reservation about participating in the committee or forming the committee. As the chairman pointed out, on the vote to form the select committee originally, only seven Democratic Members supported it because it was unclear, other than the political purpose, what was the purpose of this select committee. And in the reauthorization, which took place as part of the rules package, not a single Democrat supported it. In fact, four Republicans voted against the rules package which reauthorized this committee.    And a big part of the reason is that, even now, eight months later, we still don't know what we are looking for. And this is a problem not only in terms of this select committee and investigation going on indefinitely, but it is also a problem in terms of the pace at which we can expect to get our document requests responded to. If we had a better idea of what we were looking at, if we had a better idea of what was actually in controversy, then we could narrow our requests, and I am sure we could get it complied with with much more alacrity.    Part of the reason why I think the charter for this select committee was as broad as the chairman mentioned is that we really didn't know the purpose of this committee. Were we looking at gun-running, or were we looking at nonexistent stand-down orders, or were we looking at military assistance that was ordered not to be provided, or were we looking at any other number of myths?    The challenge has been that, on these issues, it is not as if there was a factual controversy. There wasn't, before this committee was established. We have had innumerable investigations, and we couldn't narrow in on a particular set of facts that were in dispute, because it really wasn't a fact-based dispute as much as a political dispute about how to interpret the events.    So the charter was very broad, and, for that reason, it was voted on on a fairly party-line basis. But the committee was established. We agreed to participate in the hopes that, against our expectation, it would turn out to be something different.    And, initially, it looked that way. And I am grateful that the first two hearings were on a very productive course, and that is what have we done in terms of implementing the ARB recommendations. I think that was very productive to do. I think it is very productive to ask, ``Where are we in the hunt for those responsible?''    But we haven't narrowed the scope to those things. We haven't narrowed the scope, indeed, at all. We still don't know what we are looking for, but we know we are looking for something. And it is part of the reason why we feel it is so important that we agree on the scope of this investigation; otherwise, it is going to go on forever. It really will be a partisan fishing expedition, or it will be drawn out to affect the Presidential election cycle.    At the end of the day--and I want to disabuse anyone of the idea that was suggested by my colleague--we have never asked for a veto over subpoenas. What we have asked for is to be notified of them, to have a chance to weigh in. Where they are not disputed, our ranking member and chairman can agree on them, and where they are disputed, we ought to have a vote on them. That is not a veto. They have far more members than we do. Provided their members agree with the subpoena requests, they should always be approved. But we ought to have at least an open debate about it to prevent this from getting into a purely partisan exercise, unless that is the goal.    So I think defining the scope here is going to be very important if it is going to have any credibility.    And the final point I would make on this is, if this investigation doesn't produce a bipartisan report, it will have been a complete failure. It will be a meaningless failure. Because if we don't produce a bipartisan report at the end of the day, it will have no credibility. So if we are going to invest our time in this, let's make it worthwhile. And that means let's make it bipartisan so that the country and the families will have the confidence of knowing that this was an objective work product.    Because, honestly, if at the end of the day we have a report and the Republicans vote for it and the Democrats vote against it, yes, it will pass--you have the majority; you can do pretty much whatever you want--but it will have been a complete waste of time, and it will be a disservice to the families and a disservice to the taxpayers.    So if we are going to get to that bipartisan work product at the end of the day, it is going to have to mean we need to know who you are talking to. We need to know when they agree with the narrative that some believe; we need to know when they disagree with that narrative.    We ought to be part of the discussions about who we are subpoenaing. We ought to be part of the discussion about what we are really going to focus on here. I mean, at the end of the day, is it really about gun-running? Does anyone really think that is what this is about? And if it is not, okay, then let's not waste our time on that.    So let's figure out what this is about. Let's, you know, dedicate ourselves to making this a bipartisan work product at the end of the day. And we all have too much to do and there is too much at stake and too many families who are so deeply impacted by this, that they deserve better than anything less than bipartisan.    And I yield back.</t>
   </si>
   <si>
     <t>412226</t>
   </si>
   <si>
-    <t>Jim Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan [presiding]. The gentlelady from Indiana is recognized.</t>
   </si>
   <si>
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman.    I would like to agree that we do need to get to the bottom and we do need to find out what happened, and that is what everyone has been talking about. But the manner in which you do that, whether you are a lawyer, as I am, former U.S. attorney, whether you are a law enforcement official who conducts investigations, whether, as my friend from Illinois said, whether you are a parent trying to get to the bottom of an incident, you have to ask questions and you have to interview those who were involved.    But when the incident involves numerous documents, typically in any investigation, you try to get the documents ahead of time so that you run an efficient, fair investigation when you get to ask witness questions. You have documents in front of you that you can ask them the most relevant questions.    And that, I think, has been the problem that we have had, is that while you, Mr. Rubin, have talked about cooperating, you have required us to prioritize rather than giving us, as Ms. Roby talked about, the universe of documents, and so things have been, you know, dribbed and drabbed out to this committee over a period of time. And in large part because of that, that is why we have not interviewed witnesses yet, because we have been waiting on the documents for months.    And I think when this committee was established the State Department knew, as we said, we were going to take the work, the documents from the other committees. We didn't want to duplicate the effort. We wanted to take the documents from the other committees, and it has taken a long time just to get those. What was produced to OGR? What was produced to Intel? So I just want to say, we have tried in a very thorough, fair manner to try to extract the documents from the various agencies that have already given the documents to different committees.    Our recommendations do plan to be very--we do need to make bipartisan recommendations. I agree with that. But in order to conduct a fair, thorough, thoughtful, efficient investigation, we have to have the documents first. That is why we have been focused on the documents.    And I have to ask, how can we possibly learn from the attacks if we don't learn about the attacks? We can't make recommendations going forward if we don't have all of the facts about what happened before, during, and after the attack.    And there are documents that remain to be reviewed. We have learned that. You have recently given us new documents that were never reviewed prior to the establishment of this committee. Even though there have been eight committees that received and requested documents in the past, this committee is still getting new documents. And our challenge is we don't know how many more new documents are out there. And how can that be? After 2 years since this tragic incident, how can it be that we are still getting new documents?    And the need to review those documents, as anyone who conducts any investigation, that is critical prior to interviewing witnesses who have yet to tell their stories to Congress. So many witnesses have yet to tell their story to Congress.    And I want to focus on our request to interview those witnesses. Our first two requests--and there will be more requests, Mr. Rubin--our first two requests for the State Department were to interview 22 State Department personnel, 18 of whom were in Benghazi in the months prior to the attack and experienced firsthand the deteriorating security posture, as well as the 4 who were in Benghazi. None of those people have been interviewed by Congress, to my knowledge--none.    And so, for the other side to, you know, really try and capture all that has been done, how is it that 22 people who have direct knowledge have not yet been interviewed by any committees in Congress?    So there are no asked and answered questions from 22 different people with firsthand knowledge. So we are not seeking to duplicate any work that has already been done. This is new, fresh work that needs to be done--people who were there, people who were in Benghazi prior to the attack, and actually people who were there during the attack.    So would you agree with me, Mr. Rubin, that firsthand knowledge, rather than a summary, a report, another agent coming in and talking to us, firsthand information is better than secondhand information? Would you agree?</t>
   </si>
   <si>
@@ -742,9 +709,6 @@
     <t>412431</t>
   </si>
   <si>
-    <t>Mike Pompeo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pompeo. Thank you, Mr. Chairman. It has been a very productive hearing.    Mr. Schiff seemed confused about why you are here, Mr. Higgins. I am about to enlighten him just perhaps a little bit about why you are here today.    The Central Intelligence Agency had turned over a series of documents to the House Permanent Select Committee on Intelligence. When it wrapped up its investigation, it returned those documents, as it did under its instructions and its rules, and they provided them to you. In a letter of May 8th, then-chairman of the committee, Chairman Mike Rogers asked you to hold on to those documents, to secund them in a way that they would be available to this committee in a very expeditious manner.    Since at least October, this committee has been seeking those documents. November 19th, one of your staff said, quote, ``Working to try to set up a time next week,'' end of quote. December 8th, one of your staff attorneys says, quote, ``We are in the process of organizing and page-numbering,'' end of quote. And then December 15, one of your staff attorneys said, quote, ``We will reach out to you soon,'' end of quote.    That is a series of documents you had already identified. You had turned them over on Thursday of last week after Chairman Gowdy had to go through the process of notifying you that you were going to come here today and have to answer for why you hadn't turned over the documents. Coincidence?</t>
   </si>
   <si>
@@ -872,9 +836,6 @@
   </si>
   <si>
     <t>400627</t>
-  </si>
-  <si>
-    <t>Lynn A. Westmoreland</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Westmoreland. Thank you, Mr. Chairman.    I just wanted to make a couple of comments about some of the statements that have been made about the delay in this committee in the request for documents.    This committee was formed in May, and I don't know if the minority leader didn't appoint the other side's members for 2 or 3 weeks, but we had to staff up. Both sides had to hire staff. And then, once we hired the staff, they had to get security clearance, which Mr. Higgins and Mr. Pompeo alluded to. We had a retired three-star general that applied for clearance last September, and I think he got it last Thursday. You know, if that is not dragging your feet, I don't know what it is.    But I don't know why we would have wanted all of these documents, 40,000 pages of documents, if we didn't have staff cleared to read them. I mean, we Members of Congress, I know you all don't think we do much, but, you know, for us, reading 40,000 pages of documents, that is what the staff is for.    And so, just in the amount of time it took to staff up, to find the right people from both sides of the aisle, and then to get their security clearance, I think everybody needs to understand, took a while.    And then, as far as the delay, you know, I think the delay has come from our chairman being too bipartisan. I know there were hours, if not a couple days, spent on arguing about how much time each member would get. And I think the minority wanted it down to 9 minutes and 20 seconds each, the way this thing was deliberated. And so if we had to spend a couple of days arguing about, you know, 40 seconds or 20 seconds or whatever it is, you are not going to get very far.    And as far as us being in the majority, I think the President said in 2009, elections have consequences.    As Mr. Pompeo said, he and I both sit on the Intelligence Committee, and reading the resolution that was put before the House, we have those same authorities as the Intel Committee.    Mr. Higgins, would you agree with that?</t>
@@ -1699,11 +1660,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1723,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1751,11 +1708,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1775,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1803,11 +1756,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1827,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1855,11 +1804,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1879,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1907,11 +1852,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1931,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1959,11 +1900,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1983,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2011,11 +1948,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2035,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2063,11 +1996,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2087,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2115,11 +2044,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2139,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2167,11 +2092,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2191,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2219,11 +2140,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2243,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2271,11 +2188,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2295,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2323,11 +2236,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2347,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2375,11 +2284,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2399,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2427,11 +2332,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2451,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2479,11 +2380,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2503,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2531,11 +2428,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2555,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2583,11 +2476,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2607,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2635,11 +2524,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2659,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2687,11 +2572,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2711,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2739,11 +2620,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2763,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2791,11 +2668,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2815,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2843,11 +2716,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2867,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2895,11 +2764,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2919,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2947,11 +2812,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2971,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2999,11 +2860,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3023,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3051,11 +2908,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3075,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3103,11 +2956,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3127,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3155,11 +3004,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3179,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3207,11 +3052,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3231,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3259,11 +3100,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3283,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3311,11 +3148,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3335,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3363,11 +3196,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3387,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3415,11 +3244,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3439,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3467,11 +3292,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3491,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3519,11 +3340,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3543,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3571,11 +3388,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3595,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3623,11 +3436,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3647,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3675,11 +3484,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3699,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3727,11 +3532,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3751,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3779,11 +3580,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3803,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3831,11 +3628,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3855,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3883,11 +3676,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3907,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3935,11 +3724,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3959,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3987,11 +3772,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4011,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4039,11 +3820,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4063,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4091,11 +3868,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4115,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4143,11 +3916,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4167,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4195,11 +3964,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4219,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4247,11 +4012,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4271,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4299,11 +4060,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4323,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4351,11 +4108,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4375,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4401,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
-      </c>
-      <c r="G106" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4427,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4453,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
-      </c>
-      <c r="G108" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4481,11 +4228,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4505,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4531,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4557,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G112" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4583,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4609,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
+        <v>119</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
         <v>124</v>
-      </c>
-      <c r="G114" t="s">
-        <v>125</v>
-      </c>
-      <c r="H114" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4635,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4661,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>124</v>
-      </c>
-      <c r="G116" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4687,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4713,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>124</v>
-      </c>
-      <c r="G118" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4739,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4765,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>124</v>
-      </c>
-      <c r="G120" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4791,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4817,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>124</v>
-      </c>
-      <c r="G122" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4843,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4869,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>124</v>
-      </c>
-      <c r="G124" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4895,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4921,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>124</v>
-      </c>
-      <c r="G126" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4947,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4973,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>124</v>
-      </c>
-      <c r="G128" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4999,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5025,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>124</v>
-      </c>
-      <c r="G130" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5051,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5077,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>124</v>
-      </c>
-      <c r="G132" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5103,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5129,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>124</v>
-      </c>
-      <c r="G134" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5155,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5181,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>124</v>
-      </c>
-      <c r="G136" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5207,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5233,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>124</v>
-      </c>
-      <c r="G138" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5261,11 +4948,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5285,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5313,11 +4996,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5339,11 +5020,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5363,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5391,11 +5068,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5415,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5441,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
         <v>156</v>
-      </c>
-      <c r="H146" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5469,11 +5140,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5493,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>165</v>
-      </c>
-      <c r="G148" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5519,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5545,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>165</v>
-      </c>
-      <c r="G150" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5571,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5597,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>165</v>
-      </c>
-      <c r="G152" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5623,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5649,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
+        <v>158</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
         <v>165</v>
-      </c>
-      <c r="G154" t="s">
-        <v>166</v>
-      </c>
-      <c r="H154" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5675,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5701,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>165</v>
-      </c>
-      <c r="G156" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5727,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5753,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>165</v>
-      </c>
-      <c r="G158" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5779,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5805,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>165</v>
-      </c>
-      <c r="G160" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5831,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5857,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>165</v>
-      </c>
-      <c r="G162" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5883,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5909,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>165</v>
-      </c>
-      <c r="G164" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5935,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5961,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>165</v>
-      </c>
-      <c r="G166" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5987,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6013,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>165</v>
-      </c>
-      <c r="G168" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6039,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6065,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>165</v>
-      </c>
-      <c r="G170" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6091,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6117,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>165</v>
-      </c>
-      <c r="G172" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6143,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6169,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>165</v>
-      </c>
-      <c r="G174" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6195,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6221,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>165</v>
-      </c>
-      <c r="G176" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6247,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6273,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>165</v>
-      </c>
-      <c r="G178" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6299,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6325,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>165</v>
-      </c>
-      <c r="G180" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6351,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6377,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>165</v>
-      </c>
-      <c r="G182" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6403,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6429,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>165</v>
-      </c>
-      <c r="G184" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6455,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6481,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>165</v>
-      </c>
-      <c r="G186" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6507,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6533,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>165</v>
-      </c>
-      <c r="G188" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6561,11 +6148,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6585,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>207</v>
-      </c>
-      <c r="G190" t="s">
-        <v>208</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6611,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>210</v>
-      </c>
-      <c r="G191" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6637,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>213</v>
-      </c>
-      <c r="G192" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6663,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6689,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>213</v>
-      </c>
-      <c r="G194" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6715,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6741,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>213</v>
-      </c>
-      <c r="G196" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6767,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6793,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>213</v>
-      </c>
-      <c r="G198" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6819,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6845,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>213</v>
-      </c>
-      <c r="G200" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6871,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6897,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>213</v>
-      </c>
-      <c r="G202" t="s">
+        <v>203</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
         <v>214</v>
-      </c>
-      <c r="H202" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6923,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6949,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>213</v>
-      </c>
-      <c r="G204" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6975,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7001,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>213</v>
-      </c>
-      <c r="G206" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7027,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7053,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>213</v>
-      </c>
-      <c r="G208" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7079,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7105,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>213</v>
-      </c>
-      <c r="G210" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7131,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7157,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>213</v>
-      </c>
-      <c r="G212" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7183,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7209,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>213</v>
-      </c>
-      <c r="G214" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7235,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7261,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>213</v>
-      </c>
-      <c r="G216" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7289,11 +6820,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7313,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>241</v>
-      </c>
-      <c r="G218" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7339,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7365,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>241</v>
-      </c>
-      <c r="G220" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7391,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7417,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>241</v>
-      </c>
-      <c r="G222" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7443,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7469,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>241</v>
-      </c>
-      <c r="G224" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7495,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7521,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>241</v>
-      </c>
-      <c r="G226" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7547,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7573,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
+        <v>230</v>
+      </c>
+      <c r="G228" t="s"/>
+      <c r="H228" t="s">
         <v>241</v>
-      </c>
-      <c r="G228" t="s">
-        <v>242</v>
-      </c>
-      <c r="H228" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7599,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7625,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>241</v>
-      </c>
-      <c r="G230" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7651,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7677,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>241</v>
-      </c>
-      <c r="G232" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7703,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7729,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>241</v>
-      </c>
-      <c r="G234" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7755,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7781,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>241</v>
-      </c>
-      <c r="G236" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7807,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7833,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>241</v>
-      </c>
-      <c r="G238" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7859,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7885,13 +7370,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>241</v>
-      </c>
-      <c r="G240" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7911,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7937,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>241</v>
-      </c>
-      <c r="G242" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7963,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7989,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>241</v>
-      </c>
-      <c r="G244" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8015,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8041,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>241</v>
-      </c>
-      <c r="G246" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8067,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8093,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>241</v>
-      </c>
-      <c r="G248" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8119,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8145,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>241</v>
-      </c>
-      <c r="G250" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8171,13 +7634,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8197,13 +7658,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>241</v>
-      </c>
-      <c r="G252" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8223,13 +7682,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>18</v>
-      </c>
-      <c r="G253" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8249,13 +7706,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>241</v>
-      </c>
-      <c r="G254" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8275,13 +7730,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>18</v>
-      </c>
-      <c r="G255" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8301,13 +7754,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>241</v>
-      </c>
-      <c r="G256" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8327,13 +7778,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>18</v>
-      </c>
-      <c r="G257" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8353,13 +7802,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>241</v>
-      </c>
-      <c r="G258" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8379,13 +7826,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>18</v>
-      </c>
-      <c r="G259" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8405,13 +7850,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>241</v>
-      </c>
-      <c r="G260" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8433,11 +7876,9 @@
       <c r="F261" t="s">
         <v>11</v>
       </c>
-      <c r="G261" t="s">
-        <v>12</v>
-      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8457,13 +7898,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>285</v>
-      </c>
-      <c r="G262" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8483,13 +7922,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>18</v>
-      </c>
-      <c r="G263" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8509,13 +7946,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>285</v>
-      </c>
-      <c r="G264" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8535,13 +7970,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>18</v>
-      </c>
-      <c r="G265" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8561,13 +7994,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>285</v>
-      </c>
-      <c r="G266" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8587,13 +8018,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>18</v>
-      </c>
-      <c r="G267" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8613,13 +8042,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>285</v>
-      </c>
-      <c r="G268" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8639,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>18</v>
-      </c>
-      <c r="G269" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8665,13 +8090,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>285</v>
-      </c>
-      <c r="G270" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8691,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>18</v>
-      </c>
-      <c r="G271" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8717,13 +8138,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>285</v>
-      </c>
-      <c r="G272" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8743,13 +8162,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>18</v>
-      </c>
-      <c r="G273" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8769,13 +8186,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>285</v>
-      </c>
-      <c r="G274" t="s">
+        <v>273</v>
+      </c>
+      <c r="G274" t="s"/>
+      <c r="H274" t="s">
         <v>286</v>
-      </c>
-      <c r="H274" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8795,13 +8210,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>18</v>
-      </c>
-      <c r="G275" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8821,13 +8234,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>285</v>
-      </c>
-      <c r="G276" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8847,13 +8258,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>18</v>
-      </c>
-      <c r="G277" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8873,13 +8282,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>285</v>
-      </c>
-      <c r="G278" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8899,13 +8306,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>18</v>
-      </c>
-      <c r="G279" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8925,13 +8330,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>285</v>
-      </c>
-      <c r="G280" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8951,13 +8354,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>18</v>
-      </c>
-      <c r="G281" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8977,13 +8378,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>285</v>
-      </c>
-      <c r="G282" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9003,13 +8402,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>18</v>
-      </c>
-      <c r="G283" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9029,13 +8426,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>285</v>
-      </c>
-      <c r="G284" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9055,13 +8450,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>18</v>
-      </c>
-      <c r="G285" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9081,13 +8474,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>285</v>
-      </c>
-      <c r="G286" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9107,13 +8498,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>18</v>
-      </c>
-      <c r="G287" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9133,13 +8522,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>285</v>
-      </c>
-      <c r="G288" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9159,13 +8546,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>18</v>
-      </c>
-      <c r="G289" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9185,13 +8570,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>285</v>
-      </c>
-      <c r="G290" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9211,13 +8594,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>18</v>
-      </c>
-      <c r="G291" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9237,13 +8618,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>285</v>
-      </c>
-      <c r="G292" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9263,13 +8642,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>18</v>
-      </c>
-      <c r="G293" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9289,13 +8666,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>285</v>
-      </c>
-      <c r="G294" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9315,13 +8690,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>18</v>
-      </c>
-      <c r="G295" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9341,13 +8714,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>285</v>
-      </c>
-      <c r="G296" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9367,13 +8738,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9393,13 +8762,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>285</v>
-      </c>
-      <c r="G298" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9419,13 +8786,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>18</v>
-      </c>
-      <c r="G299" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9445,13 +8810,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>285</v>
-      </c>
-      <c r="G300" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9471,13 +8834,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>18</v>
-      </c>
-      <c r="G301" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9497,13 +8858,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>285</v>
-      </c>
-      <c r="G302" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9523,13 +8882,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>18</v>
-      </c>
-      <c r="G303" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9549,13 +8906,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>285</v>
-      </c>
-      <c r="G304" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9575,13 +8930,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>18</v>
-      </c>
-      <c r="G305" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9601,13 +8954,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>285</v>
-      </c>
-      <c r="G306" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9627,13 +8978,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>18</v>
-      </c>
-      <c r="G307" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9653,13 +9002,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>285</v>
-      </c>
-      <c r="G308" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9681,11 +9028,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>12</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9705,13 +9050,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>14</v>
-      </c>
-      <c r="G310" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9731,13 +9074,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>14</v>
-      </c>
-      <c r="G311" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9757,13 +9098,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>18</v>
-      </c>
-      <c r="G312" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9783,13 +9122,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>14</v>
-      </c>
-      <c r="G313" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9809,13 +9146,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>18</v>
-      </c>
-      <c r="G314" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9835,13 +9170,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>14</v>
-      </c>
-      <c r="G315" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9861,13 +9194,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>18</v>
-      </c>
-      <c r="G316" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9887,13 +9218,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>14</v>
-      </c>
-      <c r="G317" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9913,13 +9242,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>18</v>
-      </c>
-      <c r="G318" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9939,13 +9266,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>14</v>
-      </c>
-      <c r="G319" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9965,13 +9290,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>18</v>
-      </c>
-      <c r="G320" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9991,13 +9314,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>14</v>
-      </c>
-      <c r="G321" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10017,13 +9338,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>18</v>
-      </c>
-      <c r="G322" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10043,13 +9362,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>14</v>
-      </c>
-      <c r="G323" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10071,11 +9388,9 @@
       <c r="F324" t="s">
         <v>11</v>
       </c>
-      <c r="G324" t="s">
-        <v>12</v>
-      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10095,13 +9410,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>210</v>
-      </c>
-      <c r="G325" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10121,13 +9434,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>18</v>
-      </c>
-      <c r="G326" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10147,13 +9458,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>210</v>
-      </c>
-      <c r="G327" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10173,13 +9482,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>18</v>
-      </c>
-      <c r="G328" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10199,13 +9506,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>210</v>
-      </c>
-      <c r="G329" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10225,13 +9530,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>18</v>
-      </c>
-      <c r="G330" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10251,13 +9554,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>210</v>
-      </c>
-      <c r="G331" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10277,13 +9578,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>18</v>
-      </c>
-      <c r="G332" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10303,13 +9602,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>210</v>
-      </c>
-      <c r="G333" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10329,13 +9626,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>18</v>
-      </c>
-      <c r="G334" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10355,13 +9650,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>210</v>
-      </c>
-      <c r="G335" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10381,13 +9674,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>18</v>
-      </c>
-      <c r="G336" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10407,13 +9698,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>210</v>
-      </c>
-      <c r="G337" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10433,13 +9722,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>18</v>
-      </c>
-      <c r="G338" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10459,13 +9746,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>210</v>
-      </c>
-      <c r="G339" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10485,13 +9770,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>18</v>
-      </c>
-      <c r="G340" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10511,13 +9794,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>210</v>
-      </c>
-      <c r="G341" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10537,13 +9818,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>18</v>
-      </c>
-      <c r="G342" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10563,13 +9842,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>210</v>
-      </c>
-      <c r="G343" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10589,13 +9866,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>18</v>
-      </c>
-      <c r="G344" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10615,13 +9890,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>210</v>
-      </c>
-      <c r="G345" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10641,13 +9914,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>18</v>
-      </c>
-      <c r="G346" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10667,13 +9938,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>210</v>
-      </c>
-      <c r="G347" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10693,13 +9962,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>18</v>
-      </c>
-      <c r="G348" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10719,13 +9986,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>210</v>
-      </c>
-      <c r="G349" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10745,13 +10010,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>18</v>
-      </c>
-      <c r="G350" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10771,13 +10034,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>210</v>
-      </c>
-      <c r="G351" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10797,13 +10058,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>18</v>
-      </c>
-      <c r="G352" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10823,13 +10082,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>210</v>
-      </c>
-      <c r="G353" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10849,13 +10106,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>18</v>
-      </c>
-      <c r="G354" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10875,13 +10130,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>210</v>
-      </c>
-      <c r="G355" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10901,13 +10154,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>18</v>
-      </c>
-      <c r="G356" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10927,13 +10178,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>210</v>
-      </c>
-      <c r="G357" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10953,13 +10202,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>18</v>
-      </c>
-      <c r="G358" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10979,13 +10226,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>210</v>
-      </c>
-      <c r="G359" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11005,13 +10250,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>18</v>
-      </c>
-      <c r="G360" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11031,13 +10274,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>210</v>
-      </c>
-      <c r="G361" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11057,13 +10298,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>18</v>
-      </c>
-      <c r="G362" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11083,13 +10322,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>210</v>
-      </c>
-      <c r="G363" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11109,13 +10346,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>18</v>
-      </c>
-      <c r="G364" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11135,13 +10370,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>210</v>
-      </c>
-      <c r="G365" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11161,13 +10394,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>18</v>
-      </c>
-      <c r="G366" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11187,13 +10418,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>210</v>
-      </c>
-      <c r="G367" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11213,13 +10442,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>210</v>
-      </c>
-      <c r="G368" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11239,13 +10466,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>18</v>
-      </c>
-      <c r="G369" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11265,13 +10490,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>210</v>
-      </c>
-      <c r="G370" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11291,13 +10514,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>18</v>
-      </c>
-      <c r="G371" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11317,13 +10538,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>210</v>
-      </c>
-      <c r="G372" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11343,13 +10562,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>18</v>
-      </c>
-      <c r="G373" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11369,13 +10586,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>210</v>
-      </c>
-      <c r="G374" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11395,13 +10610,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>18</v>
-      </c>
-      <c r="G375" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11421,13 +10634,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>210</v>
-      </c>
-      <c r="G376" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11447,13 +10658,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>18</v>
-      </c>
-      <c r="G377" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11473,13 +10682,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>210</v>
-      </c>
-      <c r="G378" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11499,13 +10706,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>18</v>
-      </c>
-      <c r="G379" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11525,13 +10730,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>210</v>
-      </c>
-      <c r="G380" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11551,13 +10754,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>18</v>
-      </c>
-      <c r="G381" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11577,13 +10778,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>210</v>
-      </c>
-      <c r="G382" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11603,13 +10802,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>18</v>
-      </c>
-      <c r="G383" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11629,13 +10826,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>210</v>
-      </c>
-      <c r="G384" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11655,13 +10850,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>18</v>
-      </c>
-      <c r="G385" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11681,13 +10874,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>210</v>
-      </c>
-      <c r="G386" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11707,13 +10898,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>18</v>
-      </c>
-      <c r="G387" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11733,13 +10922,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>210</v>
-      </c>
-      <c r="G388" t="s">
-        <v>211</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11761,11 +10948,9 @@
       <c r="F389" t="s">
         <v>11</v>
       </c>
-      <c r="G389" t="s">
-        <v>12</v>
-      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11785,13 +10970,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>14</v>
-      </c>
-      <c r="G390" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11813,11 +10996,9 @@
       <c r="F391" t="s">
         <v>11</v>
       </c>
-      <c r="G391" t="s">
-        <v>12</v>
-      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11837,13 +11018,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>14</v>
-      </c>
-      <c r="G392" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11865,11 +11044,9 @@
       <c r="F393" t="s">
         <v>11</v>
       </c>
-      <c r="G393" t="s">
-        <v>12</v>
-      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11889,13 +11066,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>14</v>
-      </c>
-      <c r="G394" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11917,11 +11092,9 @@
       <c r="F395" t="s">
         <v>11</v>
       </c>
-      <c r="G395" t="s">
-        <v>12</v>
-      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11941,13 +11114,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>14</v>
-      </c>
-      <c r="G396" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11967,13 +11138,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>18</v>
-      </c>
-      <c r="G397" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11993,13 +11162,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>14</v>
-      </c>
-      <c r="G398" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12021,11 +11188,9 @@
       <c r="F399" t="s">
         <v>11</v>
       </c>
-      <c r="G399" t="s">
-        <v>12</v>
-      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12045,13 +11210,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>18</v>
-      </c>
-      <c r="G400" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12073,11 +11236,9 @@
       <c r="F401" t="s">
         <v>11</v>
       </c>
-      <c r="G401" t="s">
-        <v>12</v>
-      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12097,13 +11258,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>18</v>
-      </c>
-      <c r="G402" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12125,11 +11284,9 @@
       <c r="F403" t="s">
         <v>11</v>
       </c>
-      <c r="G403" t="s">
-        <v>12</v>
-      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12149,13 +11306,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>18</v>
-      </c>
-      <c r="G404" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12177,11 +11332,9 @@
       <c r="F405" t="s">
         <v>11</v>
       </c>
-      <c r="G405" t="s">
-        <v>12</v>
-      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
